--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BaoCaoBienDongHoiVienNew.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BaoCaoBienDongHoiVienNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFCC3F2-9E7C-41D0-8272-858785B87DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0424B-F4D4-462C-AE0C-0D2B9F67DD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E8D1586-BA94-43A0-BB96-B0E07993DB07}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
-  <si>
-    <t>THỐNG KÊ BIẾN TỔ CHỨC HỘI, HỘI VIÊN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -57,9 +54,6 @@
     <t>Nữ</t>
   </si>
   <si>
-    <t>Địa bàn dân cư</t>
-  </si>
-  <si>
     <t>Ngành nghề</t>
   </si>
   <si>
@@ -73,47 +67,176 @@
   </si>
   <si>
     <t>Dân cư</t>
-  </si>
-  <si>
-    <t>cấp mới</t>
-  </si>
-  <si>
-    <t>Số thẻ đổi và cấp lại</t>
-  </si>
-  <si>
-    <t>Phát triển trong kỳ</t>
-  </si>
-  <si>
-    <t>Giảm trong kỳ</t>
-  </si>
-  <si>
-    <t>Lũy kế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trong năm </t>
   </si>
   <si>
     <t>Tổng 
 số</t>
   </si>
   <si>
-    <t>Tổng
-số</t>
-  </si>
-  <si>
     <t>Dân tộc thiểu số</t>
   </si>
   <si>
     <t>Tôn giáo</t>
   </si>
   <si>
-    <t>Lũy kế tăng</t>
-  </si>
-  <si>
-    <t>Lũy kế giảm</t>
-  </si>
-  <si>
-    <t>Lũy kế trong kỳ</t>
+    <t xml:space="preserve">HỘI NÔNG DÂN VIỆT NAM </t>
+  </si>
+  <si>
+    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>BCH HỘI NÔNG DÂN ….......</t>
+  </si>
+  <si>
+    <t>Độc Lập - Tự Do - Hạnh Phúc</t>
+  </si>
+  <si>
+    <t>TP. Hồ Chí Minh, ngày     tháng    năm 20…..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Số     BC/HND….</t>
+  </si>
+  <si>
+    <t>Tổng số ấp, khu phố</t>
+  </si>
+  <si>
+    <t>Tổng số ấp, khu phố có tổ chức Hội</t>
+  </si>
+  <si>
+    <t>TS đảng viên tham gia sinh hoạt Hội</t>
+  </si>
+  <si>
+    <t>GTHV ưu tú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Nòng cốt              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quỹ Hội </t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Đánh giá cuối năm</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Hộ nông nghiệp</t>
+  </si>
+  <si>
+    <t>Hộ nông nghiệp có hội 
+viên</t>
+  </si>
+  <si>
+    <t>Lao động nông nghiệp</t>
+  </si>
+  <si>
+    <t>Hội viên Địa bàn dân cư</t>
+  </si>
+  <si>
+    <t>Giới thiệu</t>
+  </si>
+  <si>
+    <t>Kết nạp Đảng</t>
+  </si>
+  <si>
+    <t>Phong trào (=25% tổng số HV)</t>
+  </si>
+  <si>
+    <t>Trong đó hội viên tập hợp nhanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hội cơ sở (đồng)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi Hội (50.000đ/HV)  </t>
+  </si>
+  <si>
+    <t>Được cấp trong năm</t>
+  </si>
+  <si>
+    <t>Số  thẻ đổi và cấp lại</t>
+  </si>
+  <si>
+    <t>Tổng số cơ sở Hội</t>
+  </si>
+  <si>
+    <t>Cơ sở Hội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng Số Chi hội </t>
+  </si>
+  <si>
+    <t>Chi Hội</t>
+  </si>
+  <si>
+    <t>Tổng số Tổ hội</t>
+  </si>
+  <si>
+    <t>Tổ Hội</t>
+  </si>
+  <si>
+    <t>Tổng số hội viên</t>
+  </si>
+  <si>
+    <t>Hội viên</t>
+  </si>
+  <si>
+    <t>phát triển trong kỳ</t>
+  </si>
+  <si>
+    <t>Hội viên ngành nghề hiện nay</t>
+  </si>
+  <si>
+    <t>HVDD phát triển trong kỳ</t>
+  </si>
+  <si>
+    <t>HV danh dự hiện tại</t>
+  </si>
+  <si>
+    <t>T. số</t>
+  </si>
+  <si>
+    <t>Số chi hội nghề nghiệp hiện nay</t>
+  </si>
+  <si>
+    <t>Số tổ hội nghề nghiệp hiện nay</t>
+  </si>
+  <si>
+    <t>HTSXNV</t>
+  </si>
+  <si>
+    <t>HTTNV</t>
+  </si>
+  <si>
+    <t>HTNV</t>
+  </si>
+  <si>
+    <t>KHTNV</t>
+  </si>
+  <si>
+    <t>Không đánh giá xếp loại</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>Tốt</t>
+  </si>
+  <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>kém</t>
+  </si>
+  <si>
+    <t>BÁO CÁO THỰC LỰC HỘI NĂM 202….</t>
   </si>
 </sst>
 </file>
@@ -123,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#.##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +273,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -174,41 +291,67 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -350,127 +493,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -788,410 +961,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46C0309-8F0C-4FBC-9D63-5C8868DD56E2}">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="54"/>
+    <col min="2" max="2" width="34" style="14" customWidth="1"/>
+    <col min="3" max="38" width="9.140625" style="54"/>
+    <col min="39" max="39" width="35.7109375" style="14" customWidth="1"/>
+    <col min="40" max="62" width="9.140625" style="54"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:63" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+    </row>
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+    </row>
+    <row r="4" spans="1:63" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+    </row>
+    <row r="5" spans="1:63" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+    </row>
+    <row r="6" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
+      <c r="B6" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="22"/>
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="23"/>
+      <c r="BK6" s="32" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+    <row r="7" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="28"/>
+      <c r="S7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="28"/>
+      <c r="W7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="27"/>
+      <c r="AW7" s="27"/>
+      <c r="AX7" s="28"/>
+      <c r="AY7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA7" s="27"/>
+      <c r="BB7" s="27"/>
+      <c r="BC7" s="27"/>
+      <c r="BD7" s="28"/>
+      <c r="BE7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG7" s="27"/>
+      <c r="BH7" s="27"/>
+      <c r="BI7" s="27"/>
+      <c r="BJ7" s="28"/>
+      <c r="BK7" s="33"/>
     </row>
-    <row r="3" spans="1:38" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="19" t="s">
+    <row r="8" spans="1:63" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="21"/>
-    </row>
-    <row r="4" spans="1:38" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="29" t="s">
+      <c r="P8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="39"/>
-      <c r="S4" s="38" t="s">
+      <c r="Q8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="29" t="s">
+      <c r="AB8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="AC8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD4" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="40" t="s">
+      <c r="AD8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="30"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="X5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-    </row>
-    <row r="6" spans="1:38" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY8" s="25"/>
+      <c r="AZ8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE8" s="25"/>
+      <c r="BF8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK8" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:AL1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:T3"/>
-    <mergeCell ref="U3:AA3"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AI3:AJ4"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:N4"/>
+  <mergeCells count="55">
+    <mergeCell ref="H6:R6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="W4:AL4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="AC6:AD7"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="BK6:BK8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AA6:AB7"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="AM6:AM8"/>
+    <mergeCell ref="AN6:BJ6"/>
+    <mergeCell ref="BE7:BE8"/>
+    <mergeCell ref="BF7:BJ7"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AS7:AS8"/>
+    <mergeCell ref="AT7:AX7"/>
+    <mergeCell ref="AY7:AY8"/>
+    <mergeCell ref="AZ7:BD7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BaoCaoBienDongHoiVienNew.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BaoCaoBienDongHoiVienNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0424B-F4D4-462C-AE0C-0D2B9F67DD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E324744-566B-4A1D-998F-EF3A85F66E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E8D1586-BA94-43A0-BB96-B0E07993DB07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>STT</t>
   </si>
@@ -97,15 +97,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Số     BC/HND….</t>
-  </si>
-  <si>
-    <t>Tổng số ấp, khu phố</t>
-  </si>
-  <si>
-    <t>Tổng số ấp, khu phố có tổ chức Hội</t>
-  </si>
-  <si>
     <t>TS đảng viên tham gia sinh hoạt Hội</t>
   </si>
   <si>
@@ -125,16 +116,6 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Hộ nông nghiệp</t>
-  </si>
-  <si>
-    <t>Hộ nông nghiệp có hội 
-viên</t>
-  </si>
-  <si>
-    <t>Lao động nông nghiệp</t>
   </si>
   <si>
     <t>Hội viên Địa bàn dân cư</t>
@@ -493,7 +474,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -525,18 +506,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,21 +614,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,75 +622,6 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -961,36 +939,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46C0309-8F0C-4FBC-9D63-5C8868DD56E2}">
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AS17" sqref="AS17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="54"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="34" style="14" customWidth="1"/>
-    <col min="3" max="38" width="9.140625" style="54"/>
-    <col min="39" max="39" width="35.7109375" style="14" customWidth="1"/>
-    <col min="40" max="62" width="9.140625" style="54"/>
+    <col min="3" max="33" width="9.140625" style="15"/>
+    <col min="34" max="34" width="35.7109375" style="14" customWidth="1"/>
+    <col min="35" max="57" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1017,11 +995,11 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
       <c r="AP1"/>
       <c r="AQ1"/>
       <c r="AR1"/>
@@ -1038,62 +1016,57 @@
       <c r="BC1"/>
       <c r="BD1"/>
       <c r="BE1"/>
-      <c r="BF1"/>
-      <c r="BG1"/>
-      <c r="BH1"/>
-      <c r="BI1"/>
-      <c r="BJ1"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:58" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="3" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="47" t="s">
+      <c r="V2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5" t="s">
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
       <c r="AP2"/>
       <c r="AQ2"/>
       <c r="AR2"/>
@@ -1110,20 +1083,13 @@
       <c r="BC2"/>
       <c r="BD2"/>
       <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1155,11 +1121,11 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
       <c r="AP3"/>
       <c r="AQ3"/>
       <c r="AR3"/>
@@ -1176,56 +1142,51 @@
       <c r="BC3"/>
       <c r="BD3"/>
       <c r="BE3"/>
-      <c r="BF3"/>
-      <c r="BG3"/>
-      <c r="BH3"/>
-      <c r="BI3"/>
-      <c r="BJ3"/>
     </row>
-    <row r="4" spans="1:63" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
+    <row r="4" spans="1:58" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
       <c r="AP4"/>
       <c r="AQ4"/>
       <c r="AR4"/>
@@ -1242,17 +1203,12 @@
       <c r="BC4"/>
       <c r="BD4"/>
       <c r="BE4"/>
-      <c r="BF4"/>
-      <c r="BG4"/>
-      <c r="BH4"/>
-      <c r="BI4"/>
-      <c r="BJ4"/>
     </row>
-    <row r="5" spans="1:63" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5"/>
+      <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -1306,432 +1262,393 @@
       <c r="BC5"/>
       <c r="BD5"/>
       <c r="BE5"/>
-      <c r="BF5"/>
-      <c r="BG5"/>
-      <c r="BH5"/>
-      <c r="BI5"/>
-      <c r="BJ5"/>
     </row>
-    <row r="6" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="34"/>
+      <c r="X6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI6" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="50"/>
+      <c r="BF6" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="18" t="s">
+      <c r="D7" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AN6" s="21" t="s">
+      <c r="F7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="39"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="22"/>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="22"/>
-      <c r="BD6" s="22"/>
-      <c r="BE6" s="22"/>
-      <c r="BF6" s="22"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="22"/>
-      <c r="BJ6" s="23"/>
-      <c r="BK6" s="32" t="s">
+      <c r="AA7" s="37" t="s">
         <v>32</v>
       </c>
+      <c r="AB7" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC7" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD7" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ7" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB7" s="23"/>
+      <c r="BC7" s="23"/>
+      <c r="BD7" s="23"/>
+      <c r="BE7" s="39"/>
+      <c r="BF7" s="41"/>
     </row>
-    <row r="7" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="24" t="s">
+    <row r="8" spans="1:58" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="K8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="X7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH7" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO7" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="30" t="s">
+      <c r="L8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AT7" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="27"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA7" s="27"/>
-      <c r="BB7" s="27"/>
-      <c r="BC7" s="27"/>
-      <c r="BD7" s="28"/>
-      <c r="BE7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF7" s="26" t="s">
+      <c r="Q8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BG7" s="27"/>
-      <c r="BH7" s="27"/>
-      <c r="BI7" s="27"/>
-      <c r="BJ7" s="28"/>
-      <c r="BK7" s="33"/>
-    </row>
-    <row r="8" spans="1:63" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="U8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="V8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="9" t="s">
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AA8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="13" t="s">
+      <c r="BB8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AP8" s="13" t="s">
+      <c r="BC8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AQ8" s="13" t="s">
+      <c r="BD8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AR8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS8" s="31"/>
-      <c r="AT8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE8" s="25"/>
-      <c r="BF8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK8" s="34"/>
+      <c r="BE8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF8" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="H6:R6"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="W4:AL4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="AC6:AD7"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Z7"/>
+  <mergeCells count="48">
+    <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AE7:AE8"/>
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="BK6:BK8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="AI6:BE6"/>
+    <mergeCell ref="AZ7:AZ8"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="AJ7:AM7"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="AO7:AS7"/>
+    <mergeCell ref="AT7:AT8"/>
+    <mergeCell ref="AU7:AY7"/>
+    <mergeCell ref="BF6:BF8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:W7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="R7:R8"/>
     <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AA6:AB7"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="AM6:AM8"/>
-    <mergeCell ref="AN6:BJ6"/>
-    <mergeCell ref="BE7:BE8"/>
-    <mergeCell ref="BF7:BJ7"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AS7:AS8"/>
-    <mergeCell ref="AT7:AX7"/>
-    <mergeCell ref="AY7:AY8"/>
-    <mergeCell ref="AZ7:BD7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="V2:AG2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="X6:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
